--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495553.644732494</v>
+        <v>1491458.003227729</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>379.8601585990908</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>22.03654722859547</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>98.66016779277101</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>67.22331801800702</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>102.2049872788589</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>29.97512327100496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>33.30234816440445</v>
+        <v>16.13769909905786</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>298.7307299422358</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>160.5318936537716</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>38.08911817509464</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>142.1343012721633</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>34.22340015155928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899578</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833902</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>99.72336853883992</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.6604102493273</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>211.147499124903</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3000,22 +3000,22 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>154.0364602909686</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>140.3829797864969</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654814</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.55695577161238</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>216.4795114578131</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>177.696569780335</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4309,22 +4309,22 @@
         <v>1644.250531453059</v>
       </c>
       <c r="C2" t="n">
-        <v>1644.250531453059</v>
+        <v>1275.288014512648</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.984832846309</v>
+        <v>917.0223159058974</v>
       </c>
       <c r="E2" t="n">
-        <v>900.1965802480647</v>
+        <v>917.0223159058974</v>
       </c>
       <c r="F2" t="n">
-        <v>489.2106754584572</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>73.50592518274601</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>73.50592518274601</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145195</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380223</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694942</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>1695.901286748629</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>1695.901286748629</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>1545.784647336293</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>1397.8715537539</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>1250.981606255989</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2462.682593255942</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>2239.704112450678</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1950.585774954516</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1695.901286748629</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>1695.901286748629</v>
       </c>
       <c r="X4" t="n">
-        <v>1269.331624317611</v>
+        <v>1695.901286748629</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1695.901286748629</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1228.647807131574</v>
+        <v>1709.87329429435</v>
       </c>
       <c r="C5" t="n">
-        <v>859.685290191162</v>
+        <v>1709.87329429435</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>1351.607595687599</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331018</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.517185281609</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740842</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2532.061426106211</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2323.315784712036</v>
+        <v>2353.593687005982</v>
       </c>
       <c r="U5" t="n">
-        <v>2323.315784712036</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V5" t="n">
-        <v>1992.252897368465</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="W5" t="n">
-        <v>1992.252897368465</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="X5" t="n">
-        <v>1618.787139107385</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="Y5" t="n">
-        <v>1228.647807131574</v>
+        <v>1709.87329429435</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735143</v>
+        <v>614.5430248380241</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049862</v>
+        <v>909.2465818694959</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828716</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601823</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434121</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.1463448421176</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C7" t="n">
-        <v>367.1463448421176</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>367.1463448421176</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>219.2332512597246</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
         <v>523.6376499693235</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1602.807384554897</v>
+        <v>1517.562007429415</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.807384554897</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="U7" t="n">
-        <v>1313.689047058735</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.004558852848</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="W7" t="n">
-        <v>769.5873888158875</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="X7" t="n">
-        <v>769.5873888158875</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="Y7" t="n">
-        <v>548.7948096723574</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116517</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C8" t="n">
-        <v>1685.375546116517</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1327.109847509767</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>941.3215949115224</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.5406302391191</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>552.3332093826492</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>331.5406302391191</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797191</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2303.393082295247</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2083.791617318188</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,16 +5266,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5284,7 +5284,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969299</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2412.393992518079</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2229.539158172984</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832664</v>
+        <v>2009.937693195925</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1720.862466540123</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1466.177978334236</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1176.760808297275</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385793</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385793</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385793</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.914133601552</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3951.890584782711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4503.800315021998</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998295</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5743,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703109</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D22" t="n">
-        <v>695.5020655703109</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2096.33187019581</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U25" t="n">
-        <v>2197.062545487567</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V25" t="n">
-        <v>1942.37805728168</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6253,13 +6253,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6487,28 +6487,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
         <v>631.7012443408905</v>
@@ -6615,10 +6615,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2224.324995700372</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2004.723530723313</v>
       </c>
       <c r="U31" t="n">
-        <v>2160.315914855604</v>
+        <v>1715.648304067511</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1460.963815861624</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>950.7540666811332</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.652647788941</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861034</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448699</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866305</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866305</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.184900903576</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.500412697689</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660729</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.093691762711</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.301112619181</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="35">
@@ -6925,46 +6925,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311364</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032295</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2404.986360578632</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2404.986360578632</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2185.384895601573</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1896.309668945771</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1352.208010702924</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>903.4258806613761</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3047.734188001555</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>2878.798005073648</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4222.26644111619</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3967.581952910303</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3678.164782873342</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3450.175231975325</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3229.382652831795</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,13 +7639,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111701</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832228</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553159</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578601</v>
@@ -7836,22 +7836,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2267.47159895366</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.396372297858</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V46" t="n">
-        <v>1723.711884091971</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134625</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566474</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878361</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566443</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154754</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823061</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>38.89198472948132</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>32.15184655856241</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992863</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823015</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>117.6820817884483</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>25.74504007796097</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>75.37549921168798</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>26.98982571067603</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.4141550350965</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823074</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.81829093850928</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>69.70496293143106</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>39.70888054695322</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="F2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062539</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
@@ -26368,19 +26368,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.539624622135307e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.1404403375</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.136976983</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26481,10 +26481,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-830060.5868275708</v>
       </c>
       <c r="C6" t="n">
-        <v>284691.1967483489</v>
+        <v>284691.1967483488</v>
       </c>
       <c r="D6" t="n">
-        <v>124675.7340003505</v>
+        <v>124675.7340003507</v>
       </c>
       <c r="E6" t="n">
-        <v>69204.37678324683</v>
+        <v>68856.99752889022</v>
       </c>
       <c r="F6" t="n">
-        <v>394616.8385906023</v>
+        <v>394269.4593362452</v>
       </c>
       <c r="G6" t="n">
-        <v>394616.8385906024</v>
+        <v>394269.4593362451</v>
       </c>
       <c r="H6" t="n">
-        <v>394616.8385906027</v>
+        <v>394269.4593362453</v>
       </c>
       <c r="I6" t="n">
-        <v>394616.8385906024</v>
+        <v>394269.4593362452</v>
       </c>
       <c r="J6" t="n">
-        <v>227011.6607806194</v>
+        <v>226664.2815262627</v>
       </c>
       <c r="K6" t="n">
-        <v>394616.8385906024</v>
+        <v>394269.4593362454</v>
       </c>
       <c r="L6" t="n">
-        <v>346322.8685824116</v>
+        <v>345975.4893280546</v>
       </c>
       <c r="M6" t="n">
-        <v>309561.8106550904</v>
+        <v>309214.4314007335</v>
       </c>
       <c r="N6" t="n">
-        <v>394616.8385906022</v>
+        <v>394269.4593362453</v>
       </c>
       <c r="O6" t="n">
-        <v>394616.8385906023</v>
+        <v>394269.4593362453</v>
       </c>
       <c r="P6" t="n">
-        <v>394616.8385906024</v>
+        <v>394269.4593362454</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,19 +26792,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,23 +26959,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>27.01588714262061</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>43.67336544387497</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>96.00229256896645</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>158.4863373710301</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>279.7253827934029</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>93.47709212778939</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>161.360112197333</v>
+        <v>178.5247612626796</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>66.54216182877173</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>246.3441520879398</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>187.6205372139425</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
         <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,22 +31363,22 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405676</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31439,19 +31439,19 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
         <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
         <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
         <v>264.0341136849628</v>
@@ -31463,22 +31463,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
         <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>616.5397119226047</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704888</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,16 +33259,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043726</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>209.9499448422518</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33903,7 +33903,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34365,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065822</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,10 +34795,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
         <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
         <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560635</v>
+        <v>379.9148430313211</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391968</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-2.296703792355879e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35111,10 +35111,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>477.9853321427306</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561585</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,16 +36682,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>71.39556506237764</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1491458.003227729</v>
+        <v>1493218.533530515</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>379.8601585990908</v>
+        <v>26.16098097421631</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>23.36127117156323</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>98.66016779277101</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -876,7 +876,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>102.2049872788589</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>47.42048132832971</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -955,7 +955,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>10.03845516391069</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>16.13769909905786</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>298.7307299422358</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>24.14763241892861</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444106</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>134.3391137331257</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.1343012721633</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701328</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>166.5451136812771</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.22340015155928</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>99.72336853883992</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>141.9273329298512</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189101</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>191.6604102493273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2772,10 +2772,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960837</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>138.2893995353468</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>154.0364602909686</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>38.61213096654814</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852985</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>38.61213096654825</v>
       </c>
       <c r="E37" t="n">
-        <v>4.019807611472472</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6127326838981</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>51.36569740310371</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1644.250531453059</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.288014512648</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="D2" t="n">
-        <v>917.0223159058974</v>
+        <v>559.7504193151151</v>
       </c>
       <c r="E2" t="n">
-        <v>917.0223159058974</v>
+        <v>559.7504193151151</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4333,13 +4333,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4369,13 +4369,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429757</v>
+        <v>458.7060632252739</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744474</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1695.901286748629</v>
+        <v>643.4886826182743</v>
       </c>
       <c r="C4" t="n">
-        <v>1695.901286748629</v>
+        <v>643.4886826182743</v>
       </c>
       <c r="D4" t="n">
-        <v>1545.784647336293</v>
+        <v>643.4886826182743</v>
       </c>
       <c r="E4" t="n">
-        <v>1397.8715537539</v>
+        <v>495.5755890358812</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.981606255989</v>
+        <v>348.6856415379708</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>180.6991768462494</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2462.682593255942</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2239.704112450678</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1950.585774954516</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1695.901286748629</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1695.901286748629</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X4" t="n">
-        <v>1695.901286748629</v>
+        <v>825.137147448514</v>
       </c>
       <c r="Y4" t="n">
-        <v>1695.901286748629</v>
+        <v>825.137147448514</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1709.87329429435</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C5" t="n">
-        <v>1709.87329429435</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D5" t="n">
-        <v>1351.607595687599</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281609</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740842</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400157</v>
+        <v>2514.439852310933</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005982</v>
+        <v>2305.694210916758</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270161</v>
+        <v>2052.113150180938</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.012626270161</v>
+        <v>1721.050262837367</v>
       </c>
       <c r="W5" t="n">
-        <v>2100.012626270161</v>
+        <v>1721.050262837367</v>
       </c>
       <c r="X5" t="n">
-        <v>2100.012626270161</v>
+        <v>1721.050262837367</v>
       </c>
       <c r="Y5" t="n">
-        <v>1709.87329429435</v>
+        <v>1330.910930861555</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380241</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694959</v>
+        <v>593.9684409159566</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828716</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425661</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601823</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434121</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.1529317523638</v>
+        <v>528.3525561915587</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>359.4163732636518</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>209.2997338513161</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>61.386640268923</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597246</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1517.562007429415</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1294.583526624151</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1294.583526624151</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V7" t="n">
-        <v>1294.583526624151</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W7" t="n">
-        <v>1294.583526624151</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="X7" t="n">
-        <v>1066.593975726134</v>
+        <v>930.7936001653286</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.8013965826035</v>
+        <v>710.0010210217985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2277.953133796418</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,22 +4804,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796418</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362654</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192584</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5108,31 +5108,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245718</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403302</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2303.393082295247</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T13" t="n">
-        <v>2083.791617318188</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>1794.716390662386</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>983.3403484614378</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>1097.958364892465</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2412.393992518079</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2229.539158172984</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.937693195925</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="U16" t="n">
-        <v>1720.862466540123</v>
+        <v>2090.84215317686</v>
       </c>
       <c r="V16" t="n">
-        <v>1466.177978334236</v>
+        <v>1836.157664970973</v>
       </c>
       <c r="W16" t="n">
-        <v>1176.760808297275</v>
+        <v>1546.740494934012</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7712573992578</v>
+        <v>1318.750944035995</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.9786782557277</v>
+        <v>1097.958364892465</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.7243904253733</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253733</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2096.33187019581</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1807.256643540008</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.572155334121</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1263.15498529716</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.165434399143</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y22" t="n">
-        <v>814.372855255613</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6174,25 +6174,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2253.366709591041</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1964.291482935239</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6220,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6378,10 +6378,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6420,7 +6420,7 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
         <v>1284.178074642674</v>
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,34 +6481,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811332</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2224.324995700372</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2004.723530723313</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1715.648304067511</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1460.963815861624</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1171.546645824663</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.7540666811332</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,28 +6688,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6721,28 +6721,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>724.7519863413023</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2407.960931088798</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1127.193030315072</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.400451171542</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
         <v>407.9027098310023</v>
@@ -7122,25 +7122,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>801.6605733532801</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695815</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3896878871884</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>369.499740389278</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>35.91627445172506</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878361</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.9556134883067671</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154754</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>32.90770736550215</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>38.89198472948132</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.7017074173507467</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>32.15184655856241</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>117.6820817884483</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>144.5956654067398</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>25.74504007796097</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>28.95742156328103</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>26.98982571067603</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.4141550350965</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="E37" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>105.0969227051391</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>114.1584408891651</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.196196417</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062536</v>
@@ -26349,10 +26349,10 @@
         <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26368,19 +26368,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403375</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>6.549796580657131e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551156</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830060.5868275708</v>
+        <v>-830060.5868275703</v>
       </c>
       <c r="C6" t="n">
-        <v>284691.1967483488</v>
+        <v>284691.1967483495</v>
       </c>
       <c r="D6" t="n">
-        <v>124675.7340003507</v>
+        <v>124675.7340003501</v>
       </c>
       <c r="E6" t="n">
-        <v>68856.99752889022</v>
+        <v>69169.63885781192</v>
       </c>
       <c r="F6" t="n">
-        <v>394269.4593362452</v>
+        <v>394582.1006651667</v>
       </c>
       <c r="G6" t="n">
-        <v>394269.4593362451</v>
+        <v>394582.1006651659</v>
       </c>
       <c r="H6" t="n">
-        <v>394269.4593362453</v>
+        <v>394582.1006651666</v>
       </c>
       <c r="I6" t="n">
-        <v>394269.4593362452</v>
+        <v>394582.1006651666</v>
       </c>
       <c r="J6" t="n">
-        <v>226664.2815262627</v>
+        <v>226976.922855184</v>
       </c>
       <c r="K6" t="n">
-        <v>394269.4593362454</v>
+        <v>394582.1006651665</v>
       </c>
       <c r="L6" t="n">
-        <v>345975.4893280546</v>
+        <v>346288.1306569757</v>
       </c>
       <c r="M6" t="n">
-        <v>309214.4314007335</v>
+        <v>309527.072729655</v>
       </c>
       <c r="N6" t="n">
-        <v>394269.4593362453</v>
+        <v>394582.1006651665</v>
       </c>
       <c r="O6" t="n">
-        <v>394269.4593362453</v>
+        <v>394582.1006651666</v>
       </c>
       <c r="P6" t="n">
-        <v>394269.4593362454</v>
+        <v>394582.1006651666</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26807,25 +26807,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,20 +27014,20 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.816623302254</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973548</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="D4" t="n">
-        <v>190.8166233022536</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>190.816623302254</v>
+      </c>
+      <c r="M4" t="n">
+        <v>341.3068326973548</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="L4" t="n">
-        <v>190.8166233022536</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>27.01588714262061</v>
+        <v>380.7150647674951</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>123.8902379835656</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>96.00229256896645</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>279.7253827934029</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>76.03173407046465</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>135.3825928590205</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>178.5247612626796</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>66.54216182877173</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>362.090306237125</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31439,22 +31439,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31463,22 +31463,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551119</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954403</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043726</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33903,7 +33903,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>222.5037706952099</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313211</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>298.635974126157</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235324</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.296703792355879e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>37.7638331807529</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>485.561645212107</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
